--- a/aggregated_output/POMPANO_aggregated.xlsx
+++ b/aggregated_output/POMPANO_aggregated.xlsx
@@ -438,72 +438,72 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to ensure she can travel to the event. Looking for visa information is a logical step toward achieving this goal. Additionally, Abi's comprehensive information processing style means she would consider all necessary steps, including visa requirements, to ensure she can attend the conference without any issues.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+Facets: Motivations, Information Processing Style
+Why: Abi is motivated to find visa information as it is essential for her travel to the conference. The "Visas and Travel" link under the "Attending" section is clearly visible, which aligns with her comprehensive information processing style. She would consider looking for visa information as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: Abi is motivated to find visa information as it is essential for her travel to the conference. The "Visas and Travel" link under the "Attending" section is clearly visible, which aligns with her comprehensive information processing style. She would consider looking for visa information as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to ensure she has the correct visa to travel. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given her comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and is likely to contain relevant information for conference attendees, including visa information. Abi is motivated to find visa information and, given her comprehensive information processing style, she would recognize that clicking on "Attending" is a logical step to find the necessary details.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: Computer Self-Efficacy, Attitude Toward Risk
+Why: The "Attending" link is part of a dropdown menu, and it is not immediately clear that clicking "Attending" will lead to visa information. Given Abi's low confidence in unfamiliar computing tasks and her risk-averse nature, she might not feel confident that clicking "Attending" is the correct action to find visa information. She might be hesitant to click without more explicit guidance.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that Abi should click on it to find visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident or know to click on "Attending" without clear guidance.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+Why: The "Attending" link is part of a dropdown menu, and it is not immediately clear that clicking "Attending" will lead to visa information. Abi might not feel confident about what to do next due to her low computer self-efficacy and preference for clear, step-by-step instructions. She might hesitate to click on "Attending" without more explicit guidance that it will help her find visa information.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that Abi should click on it to find visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident or know to click on "Attending" without clear guidance.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+Why: The "Attending" link is part of a dropdown menu, and it is not immediately clear that clicking "Attending" will lead to visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not be sure that clicking "Attending" is the correct step to find visa information. She might need more explicit guidance or a clearer indication that this is the right action to take.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that Abi should click on it to find visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident about what to do at this step without clear guidance.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that Abi should click on it to find visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident or know to click on "Attending" without clear guidance.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that clicking "Attending" will lead to visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident about what to do at this step without clear guidance.</t>
+Why: The "Attending" section is not immediately clear as a clickable link or button. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not be sure that clicking "Attending" is the correct action to find visa information. The page does not provide explicit instructions or indications that clicking "Attending" will lead to visa information, which could cause hesitation for Abi.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal of obtaining visa information for the conference. Given her comprehensive information processing style, she will recognize this as a step forward in her task.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option reassures her that she is making progress toward her goal. Given her comprehensive information processing style, she will recognize that selecting this option will likely provide the detailed information she needs.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option reassures her that she is making progress toward her goal of obtaining visa information for the conference. Given her comprehensive information processing style, this clear and direct path aligns well with her needs.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking "Attending," Abi will see a dropdown menu with a clear "Visas and Travel Authorizations" option. This directly aligns with her goal of finding visa information. The presence of this specific link will confirm to Abi that she is making progress toward her goal and that she is on the right track to obtaining the necessary visa information.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu with a clear option labeled "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. Given her motivation to attend the conference and her comprehensive information processing style, Abi will recognize that she is making progress toward her goal and will know to click on the "Visas and Travel Authorizations" link to get the information she needs.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu with a clear option labeled "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. The presence of this specific option will confirm to Abi that she is making progress toward her goal and provide her with the necessary information. This clear and direct path aligns with her motivation and comprehensive information processing style.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal of obtaining visa information for the conference. Given her comprehensive information processing style, this clear and direct path will be reassuring and helpful.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. Given her motivation to attend the conference and her comprehensive information processing style, she will recognize that she is making progress toward her goal and will likely feel confident that she is on the right track.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu with a clear option labeled "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. Given her motivation to attend the conference and her comprehensive information processing style, she will recognize that she is making progress toward her goal and will know to click on the "Visas and Travel Authorizations" link to get the information she needs.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal of obtaining visa information for the conference. The dropdown menu is straightforward and provides a clear next step, aligning with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her goal.</t>
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Abi, who is motivated to find visa information, will recognize that clicking on this option is the next logical step. Her comprehensive information processing style will guide her to select this option to gather the necessary details for her travel visa.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly related to her goal, making it easy for her to know what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Visas and Travel Authorizations" link is clearly labeled in the dropdown menu under "Attending." Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking this link is the appropriate next step to obtain the necessary visa information. The label is explicit and directly related to her goal, making it clear what she needs to do.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her goal.</t>
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. This directly aligns with Abi's goal of finding visa information. Given her motivation to find this information and her comprehensive information processing style, Abi will know that clicking on "Visas and Travel Authorizations" is the appropriate next step to achieve her subgoal.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly related to her goal, making it evident what she should do at this step.</t>
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to achieve her subgoal. The label is explicit and directly related to her needs, making it clear what she should do next.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her goal.</t>
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is explicit and directly related to her goal, making it clear what she should do at this step.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements, including links to the Canadian government pages for entry requirements and Electronic Travel Authorization (ETA). The page also explains the process for obtaining a Visa Invitation Letter. This comprehensive information aligns with Abi's motivation to find visa details and her preference for a thorough understanding of the process. Therefore, she will know she is making progress toward her goal and will get the information she needs.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes links to the Canadian government’s visa and ETA requirements, which are essential for her to understand what is needed for her travel. This comprehensive information aligns with Abi's information processing style and confirms that she is making progress toward her goal of obtaining the necessary visa information.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about arriving in Canada, visa requirements, and the process for obtaining a visa invitation letter. The page includes links to further details about entry requirements and an overview of the Electronic Travel Authorization (ETA). This comprehensive information aligns with Abi's motivation to find visa information and her preference for a thorough understanding of the process, confirming that she is making progress toward her goal and has access to the necessary information.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes links to the Canadian government’s visa and ETA requirements, which aligns with Abi's comprehensive information processing style. The information is clearly presented and directly relevant to her goal, confirming that she is making progress and providing her with the necessary details to proceed with her visa application.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes links to the Canadian government’s visa and ETA requirements, which are relevant to her needs. Given Abi's motivation to attend the conference and her comprehensive information processing style, she will recognize that she is making progress toward her goal and will have access to the necessary information to proceed with her visa application.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes links to the Canadian government’s visa and ETA requirements, which aligns with Abi's comprehensive information processing style. The clear and relevant information will confirm to Abi that she is making progress toward her goal and provide her with the necessary details to proceed with her visa application.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about arriving in Canada, the Electronic Travel Authorization (ETA), and the Visa Invitation Letter. This page includes links to further details about entry requirements and the ETA overview, as well as specific instructions about obtaining a visa invitation letter. The comprehensive information provided will confirm to Abi that she is making progress toward her goal and will give her the necessary details to proceed with her visa application.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about arriving in Canada, including the Electronic Travel Authorization (ETA) requirements and links to further details. It also explains the process for obtaining a Visa Invitation Letter. This page contains comprehensive information that is directly relevant to her needs, so Abi will know she is making progress toward her goal and will likely feel confident that she has found the necessary information.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about arriving in Canada, the Electronic Travel Authorization (ETA), and the Visa Invitation Letter. This page includes links to further details about entry requirements and the ETA overview, which aligns with Abi's comprehensive information processing style. The information is clearly presented and directly relevant to her goal, so she will know she is making progress and has access to the necessary information.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about arriving in Canada, the Electronic Travel Authorization (ETA), and the Visa Invitation Letter. This page contains comprehensive information and links to further details, which aligns with Abi's comprehensive information processing style. The clear and relevant content will confirm to Abi that she is making progress toward her goal of obtaining visa information and will provide her with the necessary details to proceed.</t>
         </is>
       </c>
     </row>
@@ -623,35 +623,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly provides links to "ETA Overview" and "Visa Overview" under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more specific details about the visa requirements. The link is clearly labeled and directly relevant to her goal.</t>
+Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Abi, who is motivated to find detailed visa information, will recognize that clicking on "Visa Overview" is the next logical step to gather comprehensive information about the visa requirements. This aligns with her information processing style, which involves gathering detailed information to form a complete understanding of the visa process.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Visa Overview" link is clearly labeled and positioned under the "Arriving in Canada" section, which is directly relevant to Abi's goal of finding visa information. Given her motivation to obtain this information and her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the appropriate next step to gather more detailed information about the visa requirements and process. The clear labeling and context make it evident what she should do next.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Visa Overview" link is clearly labeled and positioned under the "Arriving in Canada" section, which is directly relevant to Abi's goal of finding visa information. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" will likely provide her with detailed information about the visa requirements and process. The label is explicit and directly related to her goal, making it clear what she needs to do next.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more detailed information about the visa requirements and process. The link is clearly labeled and directly relevant to her goal.</t>
+Why: The "Visa Overview" link is clearly labeled and located under the "Arriving in Canada" section, which is relevant to Abi's goal of finding visa information. Given her motivation to obtain detailed visa information and her comprehensive information processing style, Abi will know that clicking on "Visa Overview" is the appropriate next step to gather more information about the visa requirements and process.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Visa Overview" link is clearly labeled and directly related to Abi's goal of obtaining visa information. Given her motivation to attend the conference and her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the appropriate next step to gather more detailed information about the visa requirements and process. The clear labeling and relevance to her goal will guide her to take this action confidently.</t>
+Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more detailed information about the visa requirements. The link is clearly labeled and directly relevant to her needs, making it clear what she should do next.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more specific details about the visa requirements. The link is clearly labeled and directly relevant to her goal.</t>
+Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more detailed information about the visa requirements. The link is explicitly labeled and directly related to her goal, making it clear what she should do at this step.</t>
         </is>
       </c>
     </row>
@@ -660,35 +660,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the vast amount of information to find what she specifically needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she is on the right track or if she has missed any crucial details. The lack of clear, concise, and organized information can hinder her confidence in making progress toward her goal.</t>
+Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which can be overwhelming. While Abi prefers comprehensive information, the sheer volume and density of the text may make it difficult for her to process and find the specific details she needs. Additionally, given her low computer self-efficacy, she might feel uncertain about whether she has found all the necessary information or if she is interpreting it correctly. This could hinder her confidence in knowing she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: NO
+Facets: Information Processing Style, Computer Self-Efficacy
+Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through all the information to find what is specifically relevant to her situation. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary information. The sheer volume of text and the need to navigate through it can hinder her confidence in making progress toward her goal.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through all the text to find the specific information she needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary details. The sheer volume of information without clear, concise guidance can hinder her confidence in knowing she did the right thing and is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+Why: The page Abi lands on after clicking "Visa Overview" is very long and contains a large amount of detailed information. While comprehensive, the sheer volume of text may be overwhelming for Abi, who has low computer self-efficacy. She might struggle to find the specific information she needs without feeling lost or frustrated. This could hinder her ability to feel confident that she is making progress toward her goal and obtaining all the necessary visa information.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" is extremely long and contains a large amount of detailed information. While comprehensive, the sheer volume of text can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through all the information to find what is specifically relevant to her situation. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary information. The lack of clear, concise guidance could hinder her confidence in knowing she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which might be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through all the information to find what is relevant to her specific situation. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary information. The sheer volume of text and the need to scroll extensively could hinder her confidence in making progress toward her goal.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the vast amount of information to find what she specifically needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the necessary information. The lack of clear, concise, and organized information can hinder her confidence in knowing she did the right thing and is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" is extremely long and contains a large amount of detailed information. While comprehensive, the sheer volume of text can be overwhelming, especially for someone with low computer self-efficacy. Abi might struggle to find the specific information she needs within this extensive content, making it difficult for her to feel confident that she is making progress toward her goal. The lack of clear, concise, and easily navigable information can hinder her ability to efficiently gather the necessary details.</t>
+Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the vast amount of information to find what is relevant to her specific situation. Additionally, her low computer self-efficacy might make her feel uncertain about whether she is on the right track or if she has missed any critical information. The lack of clear, concise, and organized information can hinder her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/aggregated_output/POMPANO_aggregated.xlsx
+++ b/aggregated_output/POMPANO_aggregated.xlsx
@@ -14,146 +14,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Answer: YES
+Facets: 1.Motivations 
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case </t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivations 
+Why: ABI's motivation is to accomplish her task of finding visa information. It is logical for her to seek information from the conference website and aligns with her motivations facet</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivation
+Why: ABI's goal is to find information about the visa, so it is in line with the subgoal</t>
+  </si>
+  <si>
+    <t>Answer: YES 
+Facets: 1. Motivations
+Why: ABI is looking for information in ICSE conference website, and visa information is an important aspect of planning the trip to ICSE. ABI is motivated to accomplish this subgoal to move further.</t>
+  </si>
+  <si>
+    <t>Answer: NO 
+Facets: 1. Motivations
+Why: The subgoal is not a step toward achieving the overall use case from Abi’s perspective. Abi’s motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 5.Learning Style  6.  None of the Above
+Why: The button Attending is a technical name that doesn't provide any information about what clicking it would do to ABI. So, this runs counter to ABI's learning style and ABI will struggle to do the task.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 1.Motivations, 2. Information Processing Style,  3, None of the Above, 4.Computer Self-Efficacy, 5. Learning Style, 6. None of the Above
+Why: There's no information about visa on this page. Abi's information processing style is comprehensive, and based on her lack of technical proficiency and the fact that the page doesn't mention visas, it's unlikely that she will recognize she's not making progress on her goal of finding visa information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivations, 2. Information Processing Style
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The word Visa is clearly written on the button. Also, there is no technical name/jargon on it. So, this doesn't run counter to ABI's information processing style</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivations, 2. Information Processing Style
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the page says "Visa/Invitation Letter". So, Abi will know that she has done the right thing and is making progress towards her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivations, 2. Information Processing Style
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the button says "Visa Overview". So, this doesn't run counter to ABI's information processing style</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivations, 2. Information Processing Style
+Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the page says "Visa Overview". So she will know that she is making progress towards her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy 
+Why: The term "attending" is not familiar to ABI and it is not clear what is going to happen if she clicks it. ABI's lack of computer self-efficacy will deter her from clicking on it</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 6. None of the Above 
+Why: The page she landed on after clicking attending does not provide information on visa, which will disappoint ABI and make her realize she didn't do the right thing</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations 
+Why: ABI's motivation is to accomplish her task of finding visa information. It is logical for her to click on 'Visa' link to seek visa information which aligns with her motivations facet</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: She clicked on "Visa" because she was looking for visa information. ABI will be assured when she sees the page on visa because she is familiar with this information as her goal was to find visa information</t>
+  </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa requirements as part of her preparation. The "Visas and Travel" link under the "Attending" section on the conference website is clearly relevant to her goal. Given Abi's comprehensive information processing style, she would likely consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: ABI's motivation is to find "visa information". So, she will have clicked on 'Visa' and landed on "Visa" related page. Now, "Visa Overview" looks like, it would provide the overview of the visa information, so as per her information processing style, ABI would like to click on it to get complete picture of all visa information</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to look into travel visa information as part of her preparation. The conference website is a logical place to find this information. Additionally, Abi's comprehensive information processing style means she would consider looking for all relevant details, including visa information, on the conference website. The "Visas and Travel" link under the "Attending" section is clearly visible, making it likely that Abi would think of this as a step toward achieving her overall goal.</t>
+Why: ABI was looking to go through an overview of visa information as her goal was to find visa related information. By landing on the Overview page, she will be motivated to proceed further</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 5.Learning Style, 6.None of the above
+Why: There is no information on this page about what clicking the button might do. ABI will not tinker. Also, ABI is a bit scared of unfamiliar things, as per the computer self-efficacy facet</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2.Information Processing Style, 3.Motivation
+Why: The page does provide some information about the travel grant which motivates Abi to do the action. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivation
+Why: ABI's goal is to find information about the visa. She has already taken a step toward it by clicking the attending button, so it is in line with the subgoal</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1.Motivation, 2.Information Processing Style
+Why: The page does provide the visa information that Abi is looking for. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy
+Why: ABI is not familiar with the conference website. ABI will be confused to see “ATTENDING ICSE 2019?” as the action doesn't provide enough information about where one could actually find visa information.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style 
+Why: After click on “ATTENDING ICSE 2019?”, Abi lands on the next page; however, visa information is not on this page. So, ABI will not know what to do next and whether she is making progress toward her goal since she needs to learn more and gather more information about visa information</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa requirements as part of her preparation. The conference website is a logical place to look for visa information. Additionally, Abi's comprehensive information processing style means she would consider gathering all necessary details, including visa information, from the conference website. The "Visas and Travel" link under the "Attending" section is clearly visible, making it likely that Abi would think of this as a step toward achieving her overall goal.</t>
+Why: ABI wants to know about the visa. Since she can see that “Visa” is one of the options on the page, she will click on it to find out more about it. She is motivated to move forward and get all the information she needs.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to look into travel visa information as part of her preparation. The "Visas and Travel" link under the "Attending" section on the conference website is clearly relevant to her goal. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: After clicking on “Visa,” Abi will see a page of the conference website with more information about visa information. Now she knows where to get more information about the Visa. She can now gather the information s/he needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations
+Why: S/he is looking for an overview of the Visa information. She needs to have a general idea of what visa information is all about, so she will want to read the Visa Overview to get the gist.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information to attend the ICSE conference. The "Attending" section is clearly labeled and includes relevant subcategories such as "Visas and Travel." Given Abi's comprehensive information processing style, she would likely recognize that clicking on "Attending" is a logical step to find the visa information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
+Why: After clicking on “Visa Overview,” Abi can gather as much information as she needs to about the Visa Overview document. So, she now knows that she is making progress because she is completing her subgoal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy and 5. Learning Style
+Why: ABI struggles with unfamiliar computing tasks and does not like to tinker with software. The text on the page does not provide any information about what clicking "attending" will do; thus, ABI would not know what to do.</t>
+  </si>
+  <si>
+    <t>Answer: NO 
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. Given her motivation to attend the conference and her comprehensive information processing style, Abi will recognize that she is on the right track and making progress toward her goal. The dropdown menu provides a clear and direct path to the visa information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
+Why: ABI's motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research. She prefers to stay with the technologies for which she has already mastered the peculiarities. Thus, clicking the button is not something she would do unless it is a clear next step in the process. There is no indication on the page that clicking the button will lead to any information about travel visas.</t>
+  </si>
+  <si>
+    <t>Answer: YES  
+Facets:  2. Information Processing Style
+Why: ABI tends to use a comprehensive information processing style when she needs to get more information and does it in a batch of activities. Here, she wants to gather information about visas and she has clicked the "attending" button on the page. Now, the "visa" link is visible to her and she would know that clicking on it will provide her with the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES 
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: A visa page has opened after clicking on the "visa" link. ABI will know that she is making progress toward her goal of finding information about visas because the page contains a lot of text about visas. ABI tends to use a comprehensive information processing style when she needs to get more information, and she prefers to learn by process-oriented learning (e.g., tutorials, step-by-step processes). The visa page is well-organized and easy to follow, which will make it easy for ABI to find the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES 
+Facets: 2. Information Processing Style
+Why: ABI tends to use a comprehensive information processing style when she needs to get more information and does it in a batch of activities. Here, she wants to gather information about visas and she has clicked on the "visa" link on the previous page and now she has landed on the visa page. Now, the "Visa Overview" link is visible to her and she would know that clicking on it will provide her with the information she needs about the overview of visas.</t>
+  </si>
+  <si>
+    <t>Answer: NO 
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information to attend the ICSE conference. The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations," which directly aligns with her goal. Given her comprehensive information processing style, Abi will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her subgoal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. This page includes links to the Canadian government’s visa and ETA requirements, as well as specific instructions for obtaining a visa invitation letter from the conference organizers. Given Abi's motivation to attend the conference and her comprehensive information processing style, she will recognize that she has made progress toward her goal and has access to the necessary information to proceed with her visa application.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find detailed visa information to attend the ICSE conference. The page she is on provides a clear link labeled "Visa Overview," which is likely to contain comprehensive information about the visa process. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the appropriate next step to gather all the necessary details about the visa requirements and process. The label is clear and directly relevant to her subgoal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will land on a page with extensive information about visa requirements, the page is very long and text-heavy, which may be overwhelming for her. Given her comprehensive information processing style, she might struggle to sift through the dense content to find the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about whether she has found all the necessary details, leading to potential confusion and frustration. The sheer volume of information presented at once could hinder her ability to feel confident that she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Attending" section is clearly labeled and prominently displayed on the page. Given Abi's comprehensive information processing style, she would likely read through the available sections to find relevant information. Additionally, the term "Attending" is straightforward and intuitive, making it clear that it would contain information relevant to attendees, including visa information. This clarity helps mitigate any potential issues related to Abi's lower computer self-efficacy.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi will see a dropdown menu with various options, including "Visas and Travel Authorizations." This clearly indicates that she is on the right track to finding the visa information she needs. The presence of this specific option in the dropdown menu provides immediate feedback that she is making progress toward her goal. The clear labeling and organization of the menu align with Abi's comprehensive information processing style and help mitigate any potential issues related to her lower computer self-efficacy.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's comprehensive information processing style, she would read through the available options to find the relevant information. The term "Visas and Travel Authorizations" is straightforward and directly related to her goal of finding visa information. This clarity helps Abi understand what to do next, despite her lower computer self-efficacy.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes specific sections such as "Arriving in Canada" and "Visa Invitation Letter," which are directly relevant to her needs. The information is clearly organized and comprehensive, aligning with Abi's information processing style. This clarity and detail will help Abi know that she is making progress toward her goal and provide her with the necessary information to proceed.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's comprehensive information processing style, she would read through the available information and recognize that clicking on "Visa Overview" would provide her with more detailed information about the visa requirements. The link is clearly labeled and directly relevant to her goal, making it easy for her to understand what to do next despite her lower computer self-efficacy.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 6. None of the Above
-Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the extensive amount of information to find what she specifically needs. Additionally, her lower computer self-efficacy might make her feel uncertain about whether she is on the right track, especially if the information is not clearly organized or if it requires a lot of scrolling and reading to find relevant details. The sheer volume of information could hinder her ability to feel confident that she is making progress toward her goal and obtaining all the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: Abi's computer self-efficacy is low, and she may not feel confident about what the "Attending" link will lead to without additional information. The page does not provide explicit guidance or context about what clicking "Attending" will do, which could make Abi hesitant to proceed. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided here, making it less likely she will know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal. Additionally, the comprehensive list of options aligns with her information processing style, as it provides a clear and organized way to access the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information, and the dropdown menu clearly lists "Visas and Travel Authorizations" as an option. This is a straightforward and logical step for her to take in order to achieve her subgoal. The clear labeling of the menu item aligns with her comprehensive information processing style, making it easy for her to understand that clicking on "Visas and Travel Authorizations" will likely lead her to the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes specific instructions and links to additional resources, such as the "List entry requirements by Countries" and "ETA Overview," which align with Abi's comprehensive information processing style. This clear and organized presentation of information will help Abi know that she is making progress toward her goal and provide her with the necessary details to proceed with her visa application.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find detailed visa information, and the "Visa Overview" link is clearly labeled and positioned under the "Visas and Travel Authorizations" section. This makes it evident that clicking on "Visa Overview" will provide more comprehensive information about the visa process. The clear labeling and logical placement of the link align with Abi's comprehensive information processing style, making it easy for her to understand that this is the next step to take in order to gather all necessary visa information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which could be overwhelming. Abi's comprehensive information processing style means she prefers clear, organized, and easily digestible information. The dense and extensive text on this page may make it difficult for her to quickly find the specific information she needs. Additionally, Abi's low computer self-efficacy might make her feel uncertain about whether she has found the right information or if she is making progress toward her goal, especially if the information is not clearly highlighted or easy to navigate.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information to attend the ICSE conference. The "Attending" section is clearly labeled and includes relevant subcategories such as "Visas and Travel." Given Abi's comprehensive information processing style, she would logically deduce that clicking on "Attending" is a step toward finding the visa information she needs. The clear labeling helps guide her actions, making it straightforward for her to know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. The presence of this specific option in the dropdown menu will confirm to Abi that she is on the right track and making progress toward her goal. Given her comprehensive information processing style, she will recognize that selecting this option will likely provide the detailed information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information to attend the ICSE conference. The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations," which directly aligns with her goal. Given her comprehensive information processing style, Abi will recognize that clicking on this option is the logical next step to obtain the visa information she needs. The clear labeling and relevance to her goal make it straightforward for her to know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. This page includes specific instructions and links to further resources, such as the Canadian government’s visa and ETA requirements. Given Abi's comprehensive information processing style, she will recognize that she has found the relevant and detailed information she needs, confirming that she did the right thing and is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find detailed visa information to attend the ICSE conference. The page she is on provides links to further resources, including "Visa Overview," which is clearly labeled and relevant to her goal. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the logical next step to obtain more detailed information about the visa requirements and process. The clear labeling and relevance to her goal make it straightforward for her to know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will land on a page with extensive information about visa requirements, the page is very text-heavy and may be overwhelming. Given Abi's comprehensive information processing style, she might struggle to sift through the dense content to find the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about whether she has found all the necessary details. The lack of clear, concise, and easily navigable information could hinder her confidence in knowing she did the right thing and is making progress toward her goal.</t>
+Why: The "Visa Overview" page does not contain any information about visas for Chinese citizens. The overview is more about the process of applying for a visa and does not provide any specific information about the requirements for Chinese citizens. ABI's motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research. She prefers to stay with the technologies for which she has already mastered the peculiarities. Thus, clicking the button is not something she would do unless it is a clear next step in the process.</t>
   </si>
 </sst>
 </file>
@@ -511,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,89 +555,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+      <c r="E7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_output/POMPANO_aggregated.xlsx
+++ b/aggregated_output/POMPANO_aggregated.xlsx
@@ -14,171 +14,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">Answer: YES
-Facets: 1.Motivations 
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case </t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivations 
-Why: ABI's motivation is to accomplish her task of finding visa information. It is logical for her to seek information from the conference website and aligns with her motivations facet</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivation
-Why: ABI's goal is to find information about the visa, so it is in line with the subgoal</t>
-  </si>
-  <si>
-    <t>Answer: YES 
-Facets: 1. Motivations
-Why: ABI is looking for information in ICSE conference website, and visa information is an important aspect of planning the trip to ICSE. ABI is motivated to accomplish this subgoal to move further.</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 1. Motivations
-Why: The subgoal is not a step toward achieving the overall use case from Abi’s perspective. Abi’s motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa requirements as part of her preparation. The "Visas and Travel" link under the "Attending" section on the conference website is clearly relevant to her goal. Given Abi's comprehensive information processing style, she would likely consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the ICSE conference and needs to look into travel visa information as part of her preparation. The conference website is a logical place to find this information. Additionally, Abi's comprehensive information processing style means she would consider looking for all relevant details, including visa information, on the conference website. The "Visas and Travel" link under the "Attending" section is clearly visible, making it likely that Abi would think of this as a step toward achieving her overall goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa requirements as part of her preparation. The conference website is a logical place to look for visa information. Additionally, Abi's comprehensive information processing style means she would consider gathering all necessary details, including visa information, from the conference website. The "Visas and Travel" link under the "Attending" section is clearly visible, making it likely that Abi would think of this as a step toward achieving her overall goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the ICSE conference and needs to look into travel visa information as part of her preparation. The "Visas and Travel" link under the "Attending" section on the conference website is clearly relevant to her goal. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information to attend the ICSE conference. The "Attending" section is clearly labeled and includes relevant subcategories such as "Visas and Travel." Given Abi's comprehensive information processing style, she would likely recognize that clicking on "Attending" is a logical step to find the visa information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. Given her motivation to attend the conference and her comprehensive information processing style, Abi will recognize that she is on the right track and making progress toward her goal. The dropdown menu provides a clear and direct path to the visa information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information to attend the ICSE conference. The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations," which directly aligns with her goal. Given her comprehensive information processing style, Abi will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her subgoal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. This page includes links to the Canadian government’s visa and ETA requirements, as well as specific instructions for obtaining a visa invitation letter from the conference organizers. Given Abi's motivation to attend the conference and her comprehensive information processing style, she will recognize that she has made progress toward her goal and has access to the necessary information to proceed with her visa application.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find detailed visa information to attend the ICSE conference. The page she is on provides a clear link labeled "Visa Overview," which is likely to contain comprehensive information about the visa process. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the appropriate next step to gather all the necessary details about the visa requirements and process. The label is clear and directly relevant to her subgoal.</t>
   </si>
   <si>
     <t>Answer: NO
-Facets: 5.Learning Style  6.  None of the Above
-Why: The button Attending is a technical name that doesn't provide any information about what clicking it would do to ABI. So, this runs counter to ABI's learning style and ABI will struggle to do the task.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will land on a page with extensive information about visa requirements, the page is very long and text-heavy, which may be overwhelming for her. Given her comprehensive information processing style, she might struggle to sift through the dense content to find the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about whether she has found all the necessary details, leading to potential confusion and frustration. The sheer volume of information presented at once could hinder her ability to feel confident that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Attending" section is clearly labeled and prominently displayed on the page. Given Abi's comprehensive information processing style, she would likely read through the available sections to find relevant information. Additionally, the term "Attending" is straightforward and intuitive, making it clear that it would contain information relevant to attendees, including visa information. This clarity helps mitigate any potential issues related to Abi's lower computer self-efficacy.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking "Attending," Abi will see a dropdown menu with various options, including "Visas and Travel Authorizations." This clearly indicates that she is on the right track to finding the visa information she needs. The presence of this specific option in the dropdown menu provides immediate feedback that she is making progress toward her goal. The clear labeling and organization of the menu align with Abi's comprehensive information processing style and help mitigate any potential issues related to her lower computer self-efficacy.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's comprehensive information processing style, she would read through the available options to find the relevant information. The term "Visas and Travel Authorizations" is straightforward and directly related to her goal of finding visa information. This clarity helps Abi understand what to do next, despite her lower computer self-efficacy.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes specific sections such as "Arriving in Canada" and "Visa Invitation Letter," which are directly relevant to her needs. The information is clearly organized and comprehensive, aligning with Abi's information processing style. This clarity and detail will help Abi know that she is making progress toward her goal and provide her with the necessary information to proceed.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's comprehensive information processing style, she would read through the available information and recognize that clicking on "Visa Overview" would provide her with more detailed information about the visa requirements. The link is clearly labeled and directly relevant to her goal, making it easy for her to understand what to do next despite her lower computer self-efficacy.</t>
   </si>
   <si>
     <t>Answer: NO
-Facets: 1.Motivations, 2. Information Processing Style,  3, None of the Above, 4.Computer Self-Efficacy, 5. Learning Style, 6. None of the Above
-Why: There's no information about visa on this page. Abi's information processing style is comprehensive, and based on her lack of technical proficiency and the fact that the page doesn't mention visas, it's unlikely that she will recognize she's not making progress on her goal of finding visa information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivations, 2. Information Processing Style
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The word Visa is clearly written on the button. Also, there is no technical name/jargon on it. So, this doesn't run counter to ABI's information processing style</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivations, 2. Information Processing Style
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the page says "Visa/Invitation Letter". So, Abi will know that she has done the right thing and is making progress towards her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivations, 2. Information Processing Style
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the button says "Visa Overview". So, this doesn't run counter to ABI's information processing style</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivations, 2. Information Processing Style
-Why: Abi's motivations are to accomplish her tasks with technology. Here, the subgoal is to look for visa information in the conference website. So ABI would have thought of this as a step toward achieving the overall use case. The text on the page says "Visa Overview". So she will know that she is making progress towards her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 6. None of the Above
+Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the extensive amount of information to find what she specifically needs. Additionally, her lower computer self-efficacy might make her feel uncertain about whether she is on the right track, especially if the information is not clearly organized or if it requires a lot of scrolling and reading to find relevant details. The sheer volume of information could hinder her ability to feel confident that she is making progress toward her goal and obtaining all the necessary information.</t>
   </si>
   <si>
     <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 
-Why: The term "attending" is not familiar to ABI and it is not clear what is going to happen if she clicks it. ABI's lack of computer self-efficacy will deter her from clicking on it</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: Abi's computer self-efficacy is low, and she may not feel confident about what the "Attending" link will lead to without additional information. The page does not provide explicit guidance or context about what clicking "Attending" will do, which could make Abi hesitant to proceed. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided here, making it less likely she will know what to do at this step.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal. Additionally, the comprehensive list of options aligns with her information processing style, as it provides a clear and organized way to access the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information, and the dropdown menu clearly lists "Visas and Travel Authorizations" as an option. This is a straightforward and logical step for her to take in order to achieve her subgoal. The clear labeling of the menu item aligns with her comprehensive information processing style, making it easy for her to understand that clicking on "Visas and Travel Authorizations" will likely lead her to the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. The page includes specific instructions and links to additional resources, such as the "List entry requirements by Countries" and "ETA Overview," which align with Abi's comprehensive information processing style. This clear and organized presentation of information will help Abi know that she is making progress toward her goal and provide her with the necessary details to proceed with her visa application.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find detailed visa information, and the "Visa Overview" link is clearly labeled and positioned under the "Visas and Travel Authorizations" section. This makes it evident that clicking on "Visa Overview" will provide more comprehensive information about the visa process. The clear labeling and logical placement of the link align with Abi's comprehensive information processing style, making it easy for her to understand that this is the next step to take in order to gather all necessary visa information.</t>
   </si>
   <si>
     <t>Answer: NO
-Facets: 6. None of the Above 
-Why: The page she landed on after clicking attending does not provide information on visa, which will disappoint ABI and make her realize she didn't do the right thing</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations 
-Why: ABI's motivation is to accomplish her task of finding visa information. It is logical for her to click on 'Visa' link to seek visa information which aligns with her motivations facet</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: She clicked on "Visa" because she was looking for visa information. ABI will be assured when she sees the page on visa because she is familiar with this information as her goal was to find visa information</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI's motivation is to find "visa information". So, she will have clicked on 'Visa' and landed on "Visa" related page. Now, "Visa Overview" looks like, it would provide the overview of the visa information, so as per her information processing style, ABI would like to click on it to get complete picture of all visa information</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI was looking to go through an overview of visa information as her goal was to find visa related information. By landing on the Overview page, she will be motivated to proceed further</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page Abi lands on after clicking "Visa Overview" contains a large amount of detailed information, which could be overwhelming. Abi's comprehensive information processing style means she prefers clear, organized, and easily digestible information. The dense and extensive text on this page may make it difficult for her to quickly find the specific information she needs. Additionally, Abi's low computer self-efficacy might make her feel uncertain about whether she has found the right information or if she is making progress toward her goal, especially if the information is not clearly highlighted or easy to navigate.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information to attend the ICSE conference. The "Attending" section is clearly labeled and includes relevant subcategories such as "Visas and Travel." Given Abi's comprehensive information processing style, she would logically deduce that clicking on "Attending" is a step toward finding the visa information she needs. The clear labeling helps guide her actions, making it straightforward for her to know what to do at this step.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. The presence of this specific option in the dropdown menu will confirm to Abi that she is on the right track and making progress toward her goal. Given her comprehensive information processing style, she will recognize that selecting this option will likely provide the detailed information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information to attend the ICSE conference. The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations," which directly aligns with her goal. Given her comprehensive information processing style, Abi will recognize that clicking on this option is the logical next step to obtain the visa information she needs. The clear labeling and relevance to her goal make it straightforward for her to know what to do at this step.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. This page includes specific instructions and links to further resources, such as the Canadian government’s visa and ETA requirements. Given Abi's comprehensive information processing style, she will recognize that she has found the relevant and detailed information she needs, confirming that she did the right thing and is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find detailed visa information to attend the ICSE conference. The page she is on provides links to further resources, including "Visa Overview," which is clearly labeled and relevant to her goal. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the logical next step to obtain more detailed information about the visa requirements and process. The clear labeling and relevance to her goal make it straightforward for her to know what to do at this step.</t>
   </si>
   <si>
     <t>Answer: NO
-Facets: 5.Learning Style, 6.None of the above
-Why: There is no information on this page about what clicking the button might do. ABI will not tinker. Also, ABI is a bit scared of unfamiliar things, as per the computer self-efficacy facet</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2.Information Processing Style, 3.Motivation
-Why: The page does provide some information about the travel grant which motivates Abi to do the action. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivation
-Why: ABI's goal is to find information about the visa. She has already taken a step toward it by clicking the attending button, so it is in line with the subgoal</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1.Motivation, 2.Information Processing Style
-Why: The page does provide the visa information that Abi is looking for. Also, the information is not overwhelming, and Abi can process it to understand that it’s the correct page</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy
-Why: ABI is not familiar with the conference website. ABI will be confused to see “ATTENDING ICSE 2019?” as the action doesn't provide enough information about where one could actually find visa information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style 
-Why: After click on “ATTENDING ICSE 2019?”, Abi lands on the next page; however, visa information is not on this page. So, ABI will not know what to do next and whether she is making progress toward her goal since she needs to learn more and gather more information about visa information</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI wants to know about the visa. Since she can see that “Visa” is one of the options on the page, she will click on it to find out more about it. She is motivated to move forward and get all the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on “Visa,” Abi will see a page of the conference website with more information about visa information. Now she knows where to get more information about the Visa. She can now gather the information s/he needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: S/he is looking for an overview of the Visa information. She needs to have a general idea of what visa information is all about, so she will want to read the Visa Overview to get the gist.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on “Visa Overview,” Abi can gather as much information as she needs to about the Visa Overview document. So, she now knows that she is making progress because she is completing her subgoal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy and 5. Learning Style
-Why: ABI struggles with unfamiliar computing tasks and does not like to tinker with software. The text on the page does not provide any information about what clicking "attending" will do; thus, ABI would not know what to do.</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI's motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research. She prefers to stay with the technologies for which she has already mastered the peculiarities. Thus, clicking the button is not something she would do unless it is a clear next step in the process. There is no indication on the page that clicking the button will lead to any information about travel visas.</t>
-  </si>
-  <si>
-    <t>Answer: YES  
-Facets:  2. Information Processing Style
-Why: ABI tends to use a comprehensive information processing style when she needs to get more information and does it in a batch of activities. Here, she wants to gather information about visas and she has clicked the "attending" button on the page. Now, the "visa" link is visible to her and she would know that clicking on it will provide her with the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES 
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: A visa page has opened after clicking on the "visa" link. ABI will know that she is making progress toward her goal of finding information about visas because the page contains a lot of text about visas. ABI tends to use a comprehensive information processing style when she needs to get more information, and she prefers to learn by process-oriented learning (e.g., tutorials, step-by-step processes). The visa page is well-organized and easy to follow, which will make it easy for ABI to find the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES 
-Facets: 2. Information Processing Style
-Why: ABI tends to use a comprehensive information processing style when she needs to get more information and does it in a batch of activities. Here, she wants to gather information about visas and she has clicked on the "visa" link on the previous page and now she has landed on the visa page. Now, the "Visa Overview" link is visible to her and she would know that clicking on it will provide her with the information she needs about the overview of visas.</t>
-  </si>
-  <si>
-    <t>Answer: NO 
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Visa Overview" page does not contain any information about visas for Chinese citizens. The overview is more about the process of applying for a visa and does not provide any specific information about the requirements for Chinese citizens. ABI's motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research. She prefers to stay with the technologies for which she has already mastered the peculiarities. Thus, clicking the button is not something she would do unless it is a clear next step in the process.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will land on a page with extensive information about visa requirements, the page is very text-heavy and may be overwhelming. Given Abi's comprehensive information processing style, she might struggle to sift through the dense content to find the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about whether she has found all the necessary details. The lack of clear, concise, and easily navigable information could hinder her confidence in knowing she did the right thing and is making progress toward her goal.</t>
   </si>
 </sst>
 </file>
@@ -536,13 +511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,110 +530,89 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
